--- a/Phân công công việc.xlsx
+++ b/Phân công công việc.xlsx
@@ -16,14 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="36">
   <si>
     <t>Xây dựng CSDL hàng hóa, nhân viên, khách hàng, hóa đơn,…</t>
   </si>
   <si>
-    <t>Thiết kế giao diện cửa sổ chính (màn hình đăng nhập, các menu trỏ đến các module con,…). Xây dựng module quản lý người dùng</t>
-  </si>
-  <si>
     <t>Xây dựng module nhập hàng mới</t>
   </si>
   <si>
@@ -124,13 +121,16 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>Thiết kế giao diện cửa sổ chính (màn hình đăng nhập, các menu trỏ đến các module con,…).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +164,12 @@
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -204,7 +210,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -226,6 +232,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -560,7 +572,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -573,164 +585,166 @@
   <sheetData>
     <row r="1" spans="1:4" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="C1" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>4</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="47.25" x14ac:dyDescent="0.2">
-      <c r="A10" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="31.5" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
